--- a/Medium.xlsx
+++ b/Medium.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/potato/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/potato/Downloads/write_on_medium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBEDA2B-9669-3B46-9CE8-120CC90E1DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ED0DCA-C495-2D49-BBF5-9023AA0B3CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{04AFCE13-70B3-4147-95A3-D62787A002C1}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="2023-2" sheetId="4" r:id="rId5"/>
     <sheet name="2023-3" sheetId="5" r:id="rId6"/>
     <sheet name="2023-4" sheetId="6" r:id="rId7"/>
+    <sheet name="2023-5" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">publications!$A$1:$I$76</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="282">
   <si>
     <t>Date</t>
   </si>
@@ -889,6 +890,9 @@
   </si>
   <si>
     <t>https://medium.com/the-happy-startup-school/about</t>
+  </si>
+  <si>
+    <t>Maker</t>
   </si>
 </sst>
 </file>
@@ -947,14 +951,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -962,7 +965,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1281,10 +1283,10 @@
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1299,31 +1301,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1343,10 +1345,10 @@
       <c r="E2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>59</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -1363,7 +1365,7 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>223933</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1372,10 +1374,10 @@
       <c r="E3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>67</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -1401,10 +1403,10 @@
       <c r="E4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1424,10 +1426,10 @@
       <c r="E5" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>130</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -1441,6 +1443,9 @@
       <c r="A6" t="s">
         <v>274</v>
       </c>
+      <c r="B6" t="s">
+        <v>281</v>
+      </c>
       <c r="C6" s="2">
         <v>99618</v>
       </c>
@@ -1450,10 +1455,10 @@
       <c r="E6" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1471,10 +1476,10 @@
       <c r="E7" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1494,7 +1499,7 @@
       <c r="E8" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>280</v>
       </c>
     </row>
@@ -1514,10 +1519,10 @@
       <c r="E10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1537,7 +1542,7 @@
       <c r="E11" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1548,7 +1553,7 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>495264</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1557,10 +1562,10 @@
       <c r="E12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1580,7 +1585,7 @@
       <c r="E13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1600,10 +1605,10 @@
       <c r="E14" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1623,10 +1628,10 @@
       <c r="E15" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1646,10 +1651,10 @@
       <c r="E16" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>200</v>
       </c>
     </row>
@@ -1669,10 +1674,10 @@
       <c r="E17" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>223</v>
       </c>
     </row>
@@ -1692,7 +1697,7 @@
       <c r="E18" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>246</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -1715,7 +1720,7 @@
       <c r="E19" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>272</v>
       </c>
     </row>
@@ -1735,7 +1740,7 @@
       <c r="E20" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>266</v>
       </c>
     </row>
@@ -1758,10 +1763,10 @@
       <c r="E22" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1781,10 +1786,10 @@
       <c r="E23" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>203</v>
       </c>
     </row>
@@ -1804,7 +1809,7 @@
       <c r="E24" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>243</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -1827,10 +1832,10 @@
       <c r="E26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1850,10 +1855,10 @@
       <c r="E27" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1873,10 +1878,10 @@
       <c r="E28" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1896,10 +1901,10 @@
       <c r="E29" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>115</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -1925,10 +1930,10 @@
       <c r="E30" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>118</v>
       </c>
       <c r="H30" s="3" t="s">
@@ -1954,10 +1959,10 @@
       <c r="E31" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>156</v>
       </c>
       <c r="H31" s="3" t="s">
@@ -1983,10 +1988,10 @@
       <c r="E32" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2006,10 +2011,10 @@
       <c r="E33" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2029,10 +2034,10 @@
       <c r="E34" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>152</v>
       </c>
       <c r="H34" s="3" t="s">
@@ -2058,10 +2063,10 @@
       <c r="E35" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>165</v>
       </c>
       <c r="H35" s="3" t="s">
@@ -2087,10 +2092,10 @@
       <c r="E36" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2110,10 +2115,10 @@
       <c r="E37" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="4" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2133,10 +2138,10 @@
       <c r="E38" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>181</v>
       </c>
       <c r="H38" s="3" t="s">
@@ -2162,10 +2167,10 @@
       <c r="E39" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="4" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2185,10 +2190,10 @@
       <c r="E41" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="4" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2213,10 +2218,10 @@
       <c r="E43" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="4" t="s">
         <v>77</v>
       </c>
       <c r="H43" s="3" t="s">
@@ -2233,7 +2238,7 @@
       <c r="B44" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="2">
         <v>320722</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -2242,10 +2247,10 @@
       <c r="E44" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2265,10 +2270,10 @@
       <c r="E46" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="4" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2288,10 +2293,10 @@
       <c r="E47" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="4" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2311,10 +2316,10 @@
       <c r="E49" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="4" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2334,10 +2339,10 @@
       <c r="E50" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2357,7 +2362,7 @@
       <c r="E51" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="4" t="s">
         <v>251</v>
       </c>
       <c r="H51" s="3" t="s">
@@ -2380,10 +2385,10 @@
       <c r="E52" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="4" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2408,10 +2413,10 @@
       <c r="E54" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="4" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2431,7 +2436,7 @@
       <c r="E55" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="4" t="s">
         <v>238</v>
       </c>
       <c r="H55" s="3" t="s">
@@ -2454,10 +2459,10 @@
       <c r="E57" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2477,10 +2482,10 @@
       <c r="E58" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="4" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2500,10 +2505,10 @@
       <c r="E59" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="4" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2523,10 +2528,10 @@
       <c r="E60" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="4" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2546,10 +2551,10 @@
       <c r="E61" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="4" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2569,10 +2574,10 @@
       <c r="E62" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="4" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2592,10 +2597,10 @@
       <c r="E63" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2615,7 +2620,7 @@
       <c r="E64" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="4" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2635,7 +2640,7 @@
       <c r="E66" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="4" t="s">
         <v>121</v>
       </c>
       <c r="H66" s="3" t="s">
@@ -2661,10 +2666,10 @@
       <c r="E67" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G67" s="4" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2684,10 +2689,10 @@
       <c r="E68" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="4" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2707,10 +2712,10 @@
       <c r="E72" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G72" s="4" t="s">
         <v>147</v>
       </c>
       <c r="H72" s="3" t="s">
@@ -2736,10 +2741,10 @@
       <c r="E76" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="4" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2759,7 +2764,7 @@
       <c r="E79" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" s="4" t="s">
         <v>233</v>
       </c>
       <c r="H79" s="3" t="s">
@@ -2782,7 +2787,7 @@
       <c r="E81" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" s="4" t="s">
         <v>230</v>
       </c>
       <c r="H81" s="3" t="s">
@@ -2805,7 +2810,7 @@
       <c r="E82" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="4" t="s">
         <v>249</v>
       </c>
       <c r="H82" s="3" t="s">
@@ -2828,14 +2833,14 @@
       <c r="E84" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="4" t="s">
         <v>255</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>279</v>
       </c>
@@ -2851,14 +2856,14 @@
       <c r="E85" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="4" t="s">
         <v>256</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>279</v>
       </c>
@@ -2874,7 +2879,7 @@
       <c r="E86" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="4" t="s">
         <v>261</v>
       </c>
       <c r="H86" s="3" t="s">
@@ -2984,18 +2989,18 @@
     <hyperlink ref="F6" r:id="rId98" xr:uid="{9028C2AC-7341-7440-BC85-6A6222C24954}"/>
     <hyperlink ref="F79" r:id="rId99" xr:uid="{AC624DCE-23EB-AE40-808F-80A8FD346B63}"/>
     <hyperlink ref="F55" r:id="rId100" xr:uid="{77044E48-9D28-E24D-8550-AB93A32ABEEC}"/>
-    <hyperlink ref="F24" r:id="rId101" xr:uid="{BC626DBE-5FDC-E244-A745-66335E1B1612}"/>
-    <hyperlink ref="F18" r:id="rId102" xr:uid="{9E8A92A6-8552-2B4D-9AF8-AF64C2CA5016}"/>
-    <hyperlink ref="F81" r:id="rId103" xr:uid="{424383F5-C00D-E948-8C85-4C14AB9F3ABA}"/>
-    <hyperlink ref="F82" r:id="rId104" xr:uid="{0A92F4B6-79AE-C64D-8234-5D185F1B8031}"/>
-    <hyperlink ref="F51" r:id="rId105" xr:uid="{F1E3D01B-C2E6-6247-BF01-387DA13C17F9}"/>
-    <hyperlink ref="F84" r:id="rId106" xr:uid="{920E33CD-8960-4849-BE53-76EC2EB37B49}"/>
-    <hyperlink ref="F85" r:id="rId107" xr:uid="{09DED788-4F14-1941-A266-A087CD56FA55}"/>
-    <hyperlink ref="F86" r:id="rId108" xr:uid="{4316B7D9-4593-844B-A23A-81FC474F9C2E}"/>
-    <hyperlink ref="F20" r:id="rId109" xr:uid="{FFD81860-CCE7-CF48-9E7A-56A8BBD0704B}"/>
-    <hyperlink ref="F64" r:id="rId110" xr:uid="{3E17695B-A310-5640-B7EA-65A20EF29608}"/>
-    <hyperlink ref="F19" r:id="rId111" xr:uid="{8066BE86-287A-1541-BAB2-1702C4F40AA7}"/>
-    <hyperlink ref="F8" r:id="rId112" xr:uid="{D76F0692-6335-D847-82B1-9837169CCC92}"/>
+    <hyperlink ref="F18" r:id="rId101" xr:uid="{9E8A92A6-8552-2B4D-9AF8-AF64C2CA5016}"/>
+    <hyperlink ref="F81" r:id="rId102" xr:uid="{424383F5-C00D-E948-8C85-4C14AB9F3ABA}"/>
+    <hyperlink ref="F82" r:id="rId103" xr:uid="{0A92F4B6-79AE-C64D-8234-5D185F1B8031}"/>
+    <hyperlink ref="F51" r:id="rId104" xr:uid="{F1E3D01B-C2E6-6247-BF01-387DA13C17F9}"/>
+    <hyperlink ref="F84" r:id="rId105" xr:uid="{920E33CD-8960-4849-BE53-76EC2EB37B49}"/>
+    <hyperlink ref="F85" r:id="rId106" xr:uid="{09DED788-4F14-1941-A266-A087CD56FA55}"/>
+    <hyperlink ref="F86" r:id="rId107" xr:uid="{4316B7D9-4593-844B-A23A-81FC474F9C2E}"/>
+    <hyperlink ref="F20" r:id="rId108" xr:uid="{FFD81860-CCE7-CF48-9E7A-56A8BBD0704B}"/>
+    <hyperlink ref="F64" r:id="rId109" xr:uid="{3E17695B-A310-5640-B7EA-65A20EF29608}"/>
+    <hyperlink ref="F19" r:id="rId110" xr:uid="{8066BE86-287A-1541-BAB2-1702C4F40AA7}"/>
+    <hyperlink ref="F8" r:id="rId111" xr:uid="{D76F0692-6335-D847-82B1-9837169CCC92}"/>
+    <hyperlink ref="F24" r:id="rId112" xr:uid="{BC626DBE-5FDC-E244-A745-66335E1B1612}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3535,7 +3540,7 @@
       <c r="A10" s="1">
         <v>44904</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10">
         <v>9.4</v>
       </c>
       <c r="C10">
@@ -3547,7 +3552,7 @@
       <c r="A11" s="1">
         <v>44905</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>11.08</v>
       </c>
       <c r="C11">
@@ -3559,7 +3564,7 @@
       <c r="A12" s="1">
         <v>44906</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12">
         <v>11.84</v>
       </c>
       <c r="C12">
@@ -3571,7 +3576,7 @@
       <c r="A13" s="1">
         <v>44907</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13">
         <v>12.84</v>
       </c>
       <c r="C13">
@@ -3583,7 +3588,7 @@
       <c r="A14" s="1">
         <v>44908</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14">
         <v>14.3</v>
       </c>
       <c r="C14">
@@ -3595,7 +3600,7 @@
       <c r="A15" s="1">
         <v>44909</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15">
         <v>18.34</v>
       </c>
       <c r="C15">
@@ -5041,7 +5046,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5077,7 +5082,7 @@
       </c>
       <c r="F2">
         <f>C34+E2</f>
-        <v>13.3</v>
+        <v>104.31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5088,7 +5093,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C31" si="0">B3-B2</f>
+        <f t="shared" ref="C3:C30" si="0">B3-B2</f>
         <v>1.9999999999999996</v>
       </c>
     </row>
@@ -5120,221 +5125,300 @@
       <c r="A6" s="1">
         <v>44656</v>
       </c>
+      <c r="B6">
+        <v>10.6</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.8399999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44657</v>
       </c>
+      <c r="B7">
+        <v>12.26</v>
+      </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6600000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44658</v>
       </c>
+      <c r="B8">
+        <v>13.66</v>
+      </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4000000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44659</v>
       </c>
+      <c r="B9">
+        <v>15.57</v>
+      </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9100000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44660</v>
       </c>
+      <c r="B10">
+        <v>17.62</v>
+      </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0500000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44661</v>
       </c>
+      <c r="B11">
+        <v>19.75</v>
+      </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.129999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44662</v>
       </c>
+      <c r="B12">
+        <v>23.92</v>
+      </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1700000000000017</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44663</v>
       </c>
+      <c r="B13">
+        <v>28.09</v>
+      </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1699999999999982</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44664</v>
       </c>
+      <c r="B14">
+        <v>31.92</v>
+      </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.8300000000000018</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44665</v>
       </c>
+      <c r="B15">
+        <v>34.93</v>
+      </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.009999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44666</v>
       </c>
+      <c r="B16">
+        <v>38.75</v>
+      </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.8200000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44667</v>
       </c>
+      <c r="B17">
+        <v>41.58</v>
+      </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.8299999999999983</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44668</v>
       </c>
+      <c r="B18">
+        <v>44.56</v>
+      </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.980000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44669</v>
       </c>
+      <c r="B19">
+        <v>48.76</v>
+      </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1999999999999957</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44670</v>
       </c>
+      <c r="B20">
+        <v>53.54</v>
+      </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.7800000000000011</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44671</v>
       </c>
+      <c r="B21">
+        <v>56.45</v>
+      </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.9100000000000037</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44672</v>
       </c>
+      <c r="B22">
+        <v>64.63</v>
+      </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.1799999999999926</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44673</v>
       </c>
+      <c r="B23">
+        <v>67.349999999999994</v>
+      </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7199999999999989</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44674</v>
       </c>
+      <c r="B24">
+        <v>70.52</v>
+      </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.1700000000000017</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44675</v>
       </c>
+      <c r="B25">
+        <v>73.510000000000005</v>
+      </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.9900000000000091</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44676</v>
       </c>
+      <c r="B26">
+        <v>76.78</v>
+      </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.269999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44677</v>
       </c>
+      <c r="B27">
+        <v>83</v>
+      </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.2199999999999989</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44678</v>
       </c>
+      <c r="B28">
+        <v>85.48</v>
+      </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.480000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44679</v>
       </c>
+      <c r="B29">
+        <v>90.79</v>
+      </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.3100000000000023</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44680</v>
       </c>
+      <c r="B30">
+        <v>94.36</v>
+      </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5699999999999932</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -5342,8 +5426,7 @@
         <v>44681</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -5352,7 +5435,318 @@
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34">
         <f>SUM(C2:C32)</f>
-        <v>8.76</v>
+        <v>99.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEFF13E-AD3C-A548-96BB-5EBCB9ADF65E}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B2">
+        <v>2.63</v>
+      </c>
+      <c r="C2">
+        <f>B2</f>
+        <v>2.63</v>
+      </c>
+      <c r="E2">
+        <f>2.27+2.27</f>
+        <v>4.54</v>
+      </c>
+      <c r="F2">
+        <f>C34+E2</f>
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>44653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>44654</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C30" si="0">B4-B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>44655</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>44656</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>44657</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44658</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44659</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44661</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>44662</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>44663</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>44664</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>44665</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>44666</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>44667</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>44668</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>44669</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>44670</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>44671</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>44672</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>44673</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>44675</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>44676</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>44677</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>44678</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>44679</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>44680</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>44681</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <f>SUM(C2:C32)</f>
+        <v>2.63</v>
       </c>
     </row>
   </sheetData>

--- a/Medium.xlsx
+++ b/Medium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/potato/Downloads/write_on_medium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ED0DCA-C495-2D49-BBF5-9023AA0B3CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E60A724-8A43-F948-899C-1405BA7AEFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{04AFCE13-70B3-4147-95A3-D62787A002C1}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="7" xr2:uid="{04AFCE13-70B3-4147-95A3-D62787A002C1}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="7" r:id="rId1"/>
@@ -1280,9 +1280,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EF9ECC-3DB8-314E-96F3-5F593AC9D5E0}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5447,8 +5450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEFF13E-AD3C-A548-96BB-5EBCB9ADF65E}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Medium.xlsx
+++ b/Medium.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/potato/Downloads/write_on_medium/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/potato/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E60A724-8A43-F948-899C-1405BA7AEFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD1CEEE-DBAE-0B48-8EFC-96615E564A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="7" xr2:uid="{04AFCE13-70B3-4147-95A3-D62787A002C1}"/>
+    <workbookView xWindow="320" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="8" xr2:uid="{04AFCE13-70B3-4147-95A3-D62787A002C1}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="2023-3" sheetId="5" r:id="rId6"/>
     <sheet name="2023-4" sheetId="6" r:id="rId7"/>
     <sheet name="2023-5" sheetId="8" r:id="rId8"/>
+    <sheet name="Total" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">publications!$A$1:$I$76</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="283">
   <si>
     <t>Date</t>
   </si>
@@ -893,6 +894,9 @@
   </si>
   <si>
     <t>Maker</t>
+  </si>
+  <si>
+    <t>DailyAmount</t>
   </si>
 </sst>
 </file>
@@ -981,6 +985,1954 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Total!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DailyAmount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Total!$A$2:$A$183</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="182"/>
+                <c:pt idx="0">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44867</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44868</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44869</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44870</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44871</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44872</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44876</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44877</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44878</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44879</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44880</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44881</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44882</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44883</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44884</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44885</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44886</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44887</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44888</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44889</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44890</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44891</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44892</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44893</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44894</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44897</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44898</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44899</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44900</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44901</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44902</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44903</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44904</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44905</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44906</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44907</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44908</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44909</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44910</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44911</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44912</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44913</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44914</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44915</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44916</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44917</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44918</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44919</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44920</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44921</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44922</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44923</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44924</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44928</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44929</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44930</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44931</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44932</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44933</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44934</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44935</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44936</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44937</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44938</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44939</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44940</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44941</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44942</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44943</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44944</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44945</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44946</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44947</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44948</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44949</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44950</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44951</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44952</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44953</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44954</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44956</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44958</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44959</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44960</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44961</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44962</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44963</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44964</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44965</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44966</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44967</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44968</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44969</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44970</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44971</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44972</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44973</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44974</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44975</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44976</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44977</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44978</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44979</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44980</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44981</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44982</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44983</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44987</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44988</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44989</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44990</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44992</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44993</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44994</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44996</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44997</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>45001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>45002</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>45003</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>45004</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>45005</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>45006</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>45007</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>45008</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>45009</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>45010</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>45011</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>45012</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>45013</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>45014</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>45015</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>45017</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>45018</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>45019</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>45020</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>45021</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>45022</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>45023</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>45024</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>45025</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>45026</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>45027</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>45028</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>45029</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>45030</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>45031</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>45032</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>45033</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>45034</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>45035</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>45036</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>45037</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>45038</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>45039</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>45040</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>45041</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>45042</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>45043</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>45045</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>45046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$B$2:$B$183</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="182"/>
+                <c:pt idx="0">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69000000000000039</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.91000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.46000000000000085</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46999999999999886</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.30000000000000071</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2799999999999976</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4700000000000024</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.55000000000000071</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.37999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.33000000000000185</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.68999999999999773</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.80999999999999872</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.8900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.73000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.58999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.41000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.7800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.86000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.75999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.80000000000000071</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0799999999999983</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.98000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.40000000000000213</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.1099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.59999999999999787</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.59000000000000341</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.1799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.9399999999999977</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.6300000000000026</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.31000000000000227</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.6199999999999974</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.87999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.0699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.87999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.4300000000000006</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.40000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.2999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.66999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.30000000000000071</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.6899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.8100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.91000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.4399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.4199999999999982</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.5800000000000018</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.4199999999999982</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1500000000000021</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.3599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.48999999999999844</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.78000000000000114</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.8000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.60999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.3199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.6099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.62999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.89000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.95000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.8699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.5499999999999989</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.7199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.5200000000000031</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.0899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.1499999999999986</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.2800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.1099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.5700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.5400000000000027</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.7199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.3000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.8399999999999963</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.1700000000000017</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.2800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.3699999999999974</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4.259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.62000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.86000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.86999999999999922</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.92000000000000082</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.0799999999999992</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.1400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.9200000000000017</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.4799999999999969</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.0800000000000018</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.4699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.2899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.5300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.2800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5.0499999999999972</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.85999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.0200000000000031</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.490000000000002</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>5.9199999999999946</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3.2700000000000031</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.3900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>6.6099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>5.4199999999999946</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.9999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.7000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.8399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.6600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.9100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>4.1700000000000017</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>4.1699999999999982</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.8300000000000018</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.8200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.8299999999999983</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.980000000000004</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4.1999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4.7800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.9100000000000037</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8.1799999999999926</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.7199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3.1700000000000017</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.9900000000000091</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>6.2199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5.3100000000000023</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3.5699999999999932</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AED4-2240-AAED-EE560D4FC7D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="491856847"/>
+        <c:axId val="491841135"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="491856847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491841135"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="491841135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491856847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F7DE75-3627-7FD4-1197-0231EBA82850}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3014,7 +4966,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection sqref="A1:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3417,7 +5369,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection sqref="A1:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3831,7 +5783,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4245,7 +6197,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A2" sqref="A2:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4641,7 +6593,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5049,7 +7001,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C31" sqref="A2:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5450,8 +7402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEFF13E-AD3C-A548-96BB-5EBCB9ADF65E}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5472,7 +7424,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44652</v>
+        <v>45047</v>
       </c>
       <c r="B2">
         <v>2.63</v>
@@ -5492,12 +7444,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44653</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44654</v>
+        <v>45049</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C30" si="0">B4-B3</f>
@@ -5506,7 +7458,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44655</v>
+        <v>45050</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -5515,7 +7467,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44656</v>
+        <v>45051</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -5524,7 +7476,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44657</v>
+        <v>45052</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -5533,7 +7485,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44658</v>
+        <v>45053</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -5542,7 +7494,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44659</v>
+        <v>45054</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -5551,7 +7503,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44660</v>
+        <v>45055</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -5560,7 +7512,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44661</v>
+        <v>45056</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -5569,7 +7521,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44662</v>
+        <v>45057</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -5578,7 +7530,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44663</v>
+        <v>45058</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -5587,7 +7539,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44664</v>
+        <v>45059</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -5596,7 +7548,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44665</v>
+        <v>45060</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -5605,7 +7557,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44666</v>
+        <v>45061</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -5614,7 +7566,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44667</v>
+        <v>45062</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -5623,7 +7575,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44668</v>
+        <v>45063</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -5632,7 +7584,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44669</v>
+        <v>45064</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -5641,7 +7593,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44670</v>
+        <v>45065</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -5650,7 +7602,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44671</v>
+        <v>45066</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -5659,7 +7611,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44672</v>
+        <v>45067</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -5668,7 +7620,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44673</v>
+        <v>45068</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -5677,7 +7629,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44674</v>
+        <v>45069</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -5686,7 +7638,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44675</v>
+        <v>45070</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -5695,7 +7647,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44676</v>
+        <v>45071</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -5704,7 +7656,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44677</v>
+        <v>45072</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -5713,7 +7665,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44678</v>
+        <v>45073</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -5722,7 +7674,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44679</v>
+        <v>45074</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -5731,7 +7683,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44680</v>
+        <v>45075</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -5740,11 +7692,13 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44681</v>
+        <v>45076</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1">
+        <v>45077</v>
+      </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34">
@@ -5755,4 +7709,1471 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A213FDB3-8135-194C-AEEF-02286DEFA4D0}">
+  <dimension ref="A1:B182"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B2">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B4">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B5">
+        <v>0.35999999999999988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B6">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B7">
+        <v>0.58000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B8">
+        <v>0.20999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44873</v>
+      </c>
+      <c r="B9">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B10">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44875</v>
+      </c>
+      <c r="B11">
+        <v>0.69000000000000039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>44876</v>
+      </c>
+      <c r="B12">
+        <v>0.83999999999999986</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>44878</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>44879</v>
+      </c>
+      <c r="B15">
+        <v>1.0999999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>44880</v>
+      </c>
+      <c r="B16">
+        <v>0.91000000000000014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>44881</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>44882</v>
+      </c>
+      <c r="B18">
+        <v>0.46000000000000085</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>44883</v>
+      </c>
+      <c r="B19">
+        <v>0.46999999999999886</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B20">
+        <v>0.30000000000000071</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>44885</v>
+      </c>
+      <c r="B21">
+        <v>1.3000000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>44886</v>
+      </c>
+      <c r="B22">
+        <v>1.2799999999999976</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>44887</v>
+      </c>
+      <c r="B23">
+        <v>1.4700000000000024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>44888</v>
+      </c>
+      <c r="B24">
+        <v>0.55000000000000071</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>44889</v>
+      </c>
+      <c r="B25">
+        <v>0.37999999999999901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>44890</v>
+      </c>
+      <c r="B26">
+        <v>0.75999999999999801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B27">
+        <v>0.33000000000000185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>44892</v>
+      </c>
+      <c r="B28">
+        <v>0.68999999999999773</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>44893</v>
+      </c>
+      <c r="B29">
+        <v>1.990000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B30">
+        <v>0.80999999999999872</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B31">
+        <v>2.8900000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B32">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>44897</v>
+      </c>
+      <c r="B33">
+        <v>1.0599999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B34">
+        <v>0.73000000000000043</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>44899</v>
+      </c>
+      <c r="B35">
+        <v>0.58999999999999986</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B36">
+        <v>1.7699999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>44901</v>
+      </c>
+      <c r="B37">
+        <v>0.41000000000000014</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>44902</v>
+      </c>
+      <c r="B38">
+        <v>1.7800000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>44903</v>
+      </c>
+      <c r="B39">
+        <v>0.86000000000000032</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>44905</v>
+      </c>
+      <c r="B41">
+        <v>1.6799999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>44906</v>
+      </c>
+      <c r="B42">
+        <v>0.75999999999999979</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>44907</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>44908</v>
+      </c>
+      <c r="B44">
+        <v>1.4600000000000009</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44909</v>
+      </c>
+      <c r="B45">
+        <v>4.0399999999999991</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44910</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>44911</v>
+      </c>
+      <c r="B47">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B48">
+        <v>1.2699999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>44913</v>
+      </c>
+      <c r="B49">
+        <v>0.80000000000000071</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>44914</v>
+      </c>
+      <c r="B50">
+        <v>1.0799999999999983</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>44915</v>
+      </c>
+      <c r="B51">
+        <v>0.98000000000000043</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>44916</v>
+      </c>
+      <c r="B52">
+        <v>0.40000000000000213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>44917</v>
+      </c>
+      <c r="B53">
+        <v>1.1099999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>44918</v>
+      </c>
+      <c r="B54">
+        <v>0.59999999999999787</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>44919</v>
+      </c>
+      <c r="B55">
+        <v>0.59000000000000341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>44920</v>
+      </c>
+      <c r="B56">
+        <v>1.1799999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>44921</v>
+      </c>
+      <c r="B57">
+        <v>4.259999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>44922</v>
+      </c>
+      <c r="B58">
+        <v>2.9399999999999977</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>44923</v>
+      </c>
+      <c r="B59">
+        <v>1.6300000000000026</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>44924</v>
+      </c>
+      <c r="B60">
+        <v>0.31000000000000227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B61">
+        <v>1.6000000000000014</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B62">
+        <v>2.6199999999999974</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B63">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>44928</v>
+      </c>
+      <c r="B64">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>44929</v>
+      </c>
+      <c r="B65">
+        <v>0.87999999999999989</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>44930</v>
+      </c>
+      <c r="B66">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>44931</v>
+      </c>
+      <c r="B67">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>44932</v>
+      </c>
+      <c r="B68">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>44933</v>
+      </c>
+      <c r="B69">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>44934</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>44935</v>
+      </c>
+      <c r="B71">
+        <v>0.87999999999999989</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>44936</v>
+      </c>
+      <c r="B72">
+        <v>0.4300000000000006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>44937</v>
+      </c>
+      <c r="B73">
+        <v>0.40000000000000036</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>44938</v>
+      </c>
+      <c r="B74">
+        <v>1.2999999999999989</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B75">
+        <v>0.66999999999999993</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>44940</v>
+      </c>
+      <c r="B76">
+        <v>0.30000000000000071</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>44941</v>
+      </c>
+      <c r="B77">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>44942</v>
+      </c>
+      <c r="B78">
+        <v>0.6899999999999995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>44943</v>
+      </c>
+      <c r="B79">
+        <v>0.8100000000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>44944</v>
+      </c>
+      <c r="B80">
+        <v>0.91000000000000014</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>44945</v>
+      </c>
+      <c r="B81">
+        <v>0.4399999999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>44946</v>
+      </c>
+      <c r="B82">
+        <v>1.9800000000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>44947</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>44948</v>
+      </c>
+      <c r="B84">
+        <v>1.4199999999999982</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>44949</v>
+      </c>
+      <c r="B85">
+        <v>1.5800000000000018</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>44950</v>
+      </c>
+      <c r="B86">
+        <v>1.4199999999999982</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B87">
+        <v>2.1500000000000021</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B88">
+        <v>1.3599999999999994</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>44953</v>
+      </c>
+      <c r="B89">
+        <v>0.48999999999999844</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>44954</v>
+      </c>
+      <c r="B90">
+        <v>0.78000000000000114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>44955</v>
+      </c>
+      <c r="B91">
+        <v>1.0399999999999991</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>44956</v>
+      </c>
+      <c r="B92">
+        <v>1.8000000000000043</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B93">
+        <v>0.60999999999999943</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B94">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>44959</v>
+      </c>
+      <c r="B95">
+        <v>1.3199999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>44960</v>
+      </c>
+      <c r="B96">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>44961</v>
+      </c>
+      <c r="B97">
+        <v>1.6099999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>44962</v>
+      </c>
+      <c r="B98">
+        <v>0.62999999999999989</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>44963</v>
+      </c>
+      <c r="B99">
+        <v>0.89000000000000057</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>44964</v>
+      </c>
+      <c r="B100">
+        <v>0.95000000000000018</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>44965</v>
+      </c>
+      <c r="B101">
+        <v>2.8699999999999992</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>44966</v>
+      </c>
+      <c r="B102">
+        <v>1.4600000000000009</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>44967</v>
+      </c>
+      <c r="B103">
+        <v>1.5499999999999989</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>44968</v>
+      </c>
+      <c r="B104">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B105">
+        <v>1.7199999999999989</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B106">
+        <v>2.5200000000000031</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B107">
+        <v>1.0899999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>44972</v>
+      </c>
+      <c r="B108">
+        <v>2.1499999999999986</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>44973</v>
+      </c>
+      <c r="B109">
+        <v>1.2800000000000011</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B110">
+        <v>1.0999999999999979</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>44975</v>
+      </c>
+      <c r="B111">
+        <v>1.1099999999999994</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>44976</v>
+      </c>
+      <c r="B112">
+        <v>2.5700000000000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>44977</v>
+      </c>
+      <c r="B113">
+        <v>0.5400000000000027</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>44978</v>
+      </c>
+      <c r="B114">
+        <v>1.7199999999999989</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>44979</v>
+      </c>
+      <c r="B115">
+        <v>3.129999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>44980</v>
+      </c>
+      <c r="B116">
+        <v>1.3000000000000043</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>44981</v>
+      </c>
+      <c r="B117">
+        <v>2.8399999999999963</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>44982</v>
+      </c>
+      <c r="B118">
+        <v>1.1700000000000017</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>44983</v>
+      </c>
+      <c r="B119">
+        <v>4.2800000000000011</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>44984</v>
+      </c>
+      <c r="B120">
+        <v>1.3699999999999974</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B121">
+        <v>4.259999999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B122">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>44987</v>
+      </c>
+      <c r="B123">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>44988</v>
+      </c>
+      <c r="B124">
+        <v>0.62000000000000011</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>44989</v>
+      </c>
+      <c r="B125">
+        <v>0.86000000000000032</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>44990</v>
+      </c>
+      <c r="B126">
+        <v>0.86999999999999922</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>44991</v>
+      </c>
+      <c r="B127">
+        <v>0.92000000000000082</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>44992</v>
+      </c>
+      <c r="B128">
+        <v>1.0799999999999992</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>44993</v>
+      </c>
+      <c r="B129">
+        <v>1.0500000000000007</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>44994</v>
+      </c>
+      <c r="B130">
+        <v>2.8499999999999996</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>44995</v>
+      </c>
+      <c r="B131">
+        <v>1.1400000000000006</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>44996</v>
+      </c>
+      <c r="B132">
+        <v>2.0299999999999994</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>44997</v>
+      </c>
+      <c r="B133">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>44998</v>
+      </c>
+      <c r="B134">
+        <v>1.9200000000000017</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>44999</v>
+      </c>
+      <c r="B135">
+        <v>1.4799999999999969</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B136">
+        <v>1.0800000000000018</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>45001</v>
+      </c>
+      <c r="B137">
+        <v>4.4600000000000009</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>45002</v>
+      </c>
+      <c r="B138">
+        <v>1.4699999999999989</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>45003</v>
+      </c>
+      <c r="B139">
+        <v>1.2899999999999991</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>45004</v>
+      </c>
+      <c r="B140">
+        <v>1.1999999999999993</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>45005</v>
+      </c>
+      <c r="B141">
+        <v>1.5300000000000011</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>45006</v>
+      </c>
+      <c r="B142">
+        <v>2.2800000000000011</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>45007</v>
+      </c>
+      <c r="B143">
+        <v>5.0499999999999972</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>45008</v>
+      </c>
+      <c r="B144">
+        <v>0.85999999999999943</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>45009</v>
+      </c>
+      <c r="B145">
+        <v>1.0200000000000031</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>45010</v>
+      </c>
+      <c r="B146">
+        <v>1.490000000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>45011</v>
+      </c>
+      <c r="B147">
+        <v>5.9199999999999946</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>45012</v>
+      </c>
+      <c r="B148">
+        <v>3.2700000000000031</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>45013</v>
+      </c>
+      <c r="B149">
+        <v>3.3900000000000006</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>45014</v>
+      </c>
+      <c r="B150">
+        <v>6.6099999999999994</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>45015</v>
+      </c>
+      <c r="B151">
+        <v>5.4199999999999946</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B152">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>45018</v>
+      </c>
+      <c r="B153">
+        <v>1.9999999999999996</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>45019</v>
+      </c>
+      <c r="B154">
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>45020</v>
+      </c>
+      <c r="B155">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>45021</v>
+      </c>
+      <c r="B156">
+        <v>1.8399999999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>45022</v>
+      </c>
+      <c r="B157">
+        <v>1.6600000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>45023</v>
+      </c>
+      <c r="B158">
+        <v>1.4000000000000004</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>45024</v>
+      </c>
+      <c r="B159">
+        <v>1.9100000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>45025</v>
+      </c>
+      <c r="B160">
+        <v>2.0500000000000007</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>45026</v>
+      </c>
+      <c r="B161">
+        <v>2.129999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>45027</v>
+      </c>
+      <c r="B162">
+        <v>4.1700000000000017</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B163">
+        <v>4.1699999999999982</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>45029</v>
+      </c>
+      <c r="B164">
+        <v>3.8300000000000018</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>45030</v>
+      </c>
+      <c r="B165">
+        <v>3.009999999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>45031</v>
+      </c>
+      <c r="B166">
+        <v>3.8200000000000003</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>45032</v>
+      </c>
+      <c r="B167">
+        <v>2.8299999999999983</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>45033</v>
+      </c>
+      <c r="B168">
+        <v>2.980000000000004</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>45034</v>
+      </c>
+      <c r="B169">
+        <v>4.1999999999999957</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>45035</v>
+      </c>
+      <c r="B170">
+        <v>4.7800000000000011</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>45036</v>
+      </c>
+      <c r="B171">
+        <v>2.9100000000000037</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>45037</v>
+      </c>
+      <c r="B172">
+        <v>8.1799999999999926</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>45038</v>
+      </c>
+      <c r="B173">
+        <v>2.7199999999999989</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>45039</v>
+      </c>
+      <c r="B174">
+        <v>3.1700000000000017</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>45040</v>
+      </c>
+      <c r="B175">
+        <v>2.9900000000000091</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B176">
+        <v>3.269999999999996</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B177">
+        <v>6.2199999999999989</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>45043</v>
+      </c>
+      <c r="B178">
+        <v>2.480000000000004</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>45044</v>
+      </c>
+      <c r="B179">
+        <v>5.3100000000000023</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>45045</v>
+      </c>
+      <c r="B180">
+        <v>3.5699999999999932</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>45046</v>
+      </c>
+      <c r="B181">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>